--- a/new/en-US/new.xlsx
+++ b/new/en-US/new.xlsx
@@ -72,7 +72,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="New Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>

--- a/new/en-US/new.xlsx
+++ b/new/en-US/new.xlsx
@@ -338,5 +338,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/new/en-US/new.xlsx
+++ b/new/en-US/new.xlsx
@@ -338,7 +338,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/new/en-US/new.xlsx
+++ b/new/en-US/new.xlsx
@@ -338,7 +338,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>